--- a/biology/Botanique/Stemonuraceae/Stemonuraceae.xlsx
+++ b/biology/Botanique/Stemonuraceae/Stemonuraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Stemonuraceae est une famille de plantes dicotylédones.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Stemonurus, composé des mots grecs στήμων  / stimon (latin stāmen), « fil ; étamine », et ουρά /  oura, « queue d’animal », littéralement « étamines en forme de queue ».
 </t>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette famille n'existe pas.
-La classification phylogénétique APG II (2003)[2] et classification phylogénétique APG III (2009)[3] acceptent cette famille. Elle comprend des plantes classiquement assignées à la famille Icacinacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas.
+La classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) acceptent cette famille. Elle comprend des plantes classiquement assignées à la famille Icacinacées.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Cantleya (en) Ridl.
 Codiocarpus (es) R.A.Howard
 Discophora (en) Miers
@@ -589,14 +607,14 @@
 Medusanthera (sv) Seem.  GG
 Stemonurus (en) Blume
 Whitmorea (en) Sleumer
-Selon NCBI  (12 nov. 2015)[5] :
+Selon NCBI  (12 nov. 2015) :
 Discophora
 Gomphandra
 Grisollea
 Irvingbaileya
 Lasianthera
 Medusanthera
-Selon ITIS      (12 nov. 2015)[6] :
+Selon ITIS      (12 nov. 2015) :
 Stemonurus</t>
         </is>
       </c>
@@ -625,9 +643,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Discophora
 Discophora guianensis
 genre Gomphandra
